--- a/ИО.xlsx
+++ b/ИО.xlsx
@@ -9,11 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="потребители" sheetId="1" r:id="rId1"/>
+    <sheet name="потребители (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="потребители" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">потребители!$A$1:$P$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'потребители (2)'!$A$1:$K$36</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="102">
   <si>
     <t>Санузел</t>
   </si>
@@ -140,15 +145,6 @@
     <t>ввод</t>
   </si>
   <si>
-    <t>Автоматический выключатель TDM ВА47-29 4Р 40А 4.5кА D SQ0206-0193</t>
-  </si>
-  <si>
-    <t>Устройство защитного отключения TDM ВД1-63S 4Р 63А 100мА SQ0203-0072</t>
-  </si>
-  <si>
-    <t>Разрядник TDM ОПС1-C 3Р 20kA 400B 40kA SQ0201-0007</t>
-  </si>
-  <si>
     <t>Автоматический выключатель дифференциального тока TDM 63М 2P1P+N C25 30мА 4,5кА тип АС SQ0202-0062</t>
   </si>
   <si>
@@ -258,6 +254,87 @@
   </si>
   <si>
     <t>Q20</t>
+  </si>
+  <si>
+    <t>Автоматический выключатель TDM ВА47-29 4Р 25А 4.5кА В SQ0206-0060</t>
+  </si>
+  <si>
+    <t>Устройство защитного отключения TDM ВД1-63 4Р 40А 100мА SQ0203-0036</t>
+  </si>
+  <si>
+    <t>Разрядник TDM ОПС1-C 4Р 20kA 400B 40kA SQ0201-0008</t>
+  </si>
+  <si>
+    <t>25 A</t>
+  </si>
+  <si>
+    <t>40 A</t>
+  </si>
+  <si>
+    <t>32 A</t>
+  </si>
+  <si>
+    <t>Пристройка</t>
+  </si>
+  <si>
+    <t>Q21</t>
+  </si>
+  <si>
+    <t>Скважина</t>
+  </si>
+  <si>
+    <t>Q22</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>Q23</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>40 A 100ма</t>
+  </si>
+  <si>
+    <t>25 A 30ма</t>
+  </si>
+  <si>
+    <t>16 А 30ма</t>
+  </si>
+  <si>
+    <t>16 А 10ма</t>
+  </si>
+  <si>
+    <t>С 16 А</t>
+  </si>
+  <si>
+    <t>С 32 A</t>
+  </si>
+  <si>
+    <t>B 16 А</t>
+  </si>
+  <si>
+    <t>10 А 30ма</t>
+  </si>
+  <si>
+    <t>B 10 А</t>
+  </si>
+  <si>
+    <t>Холодильник</t>
+  </si>
+  <si>
+    <t>Q24</t>
   </si>
 </sst>
 </file>
@@ -274,18 +351,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -300,11 +371,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -321,13 +389,31 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -608,28 +694,1110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2.5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2.5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" t="s">
+        <v>95</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J13" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J14" t="s">
+        <v>65</v>
+      </c>
+      <c r="K14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>2.5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="J17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2.5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1.5</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="K19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1.5</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21">
+        <v>0.75</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22">
+        <v>0.75</v>
+      </c>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>0.75</v>
+      </c>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24">
+        <v>0.75</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26">
+        <v>0.75</v>
+      </c>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="E27">
+        <v>0.75</v>
+      </c>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2.5</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2.5</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>2.5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="H34" t="s">
+        <v>93</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" t="s">
+        <v>84</v>
+      </c>
+      <c r="K34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J35" t="s">
+        <v>86</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="J36" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:K36"/>
+  <mergeCells count="23">
+    <mergeCell ref="K21:K27"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="10" width="104" customWidth="1"/>
-    <col min="11" max="11" width="27.28515625" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="0.140625" customWidth="1"/>
+    <col min="8" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" customWidth="1"/>
+    <col min="14" max="14" width="104" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>29</v>
       </c>
@@ -637,32 +1805,35 @@
         <v>30</v>
       </c>
       <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
         <v>53</v>
       </c>
-      <c r="H1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2">
+        <v>49</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2">
         <v>15774288</v>
       </c>
-      <c r="L2" s="3">
+      <c r="P2" s="2">
         <v>6371</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
@@ -670,153 +1841,192 @@
       <c r="F3" t="s">
         <v>33</v>
       </c>
+      <c r="G3" t="s">
+        <v>78</v>
+      </c>
       <c r="H3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="5">
+        <v>96</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="4">
         <v>4</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3">
-        <v>15498846</v>
-      </c>
-      <c r="L3" s="3">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <v>15498572</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="5">
+        <v>91</v>
+      </c>
+      <c r="L4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="4">
         <v>4</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4">
-        <v>15740069</v>
-      </c>
-      <c r="L4" s="3">
-        <v>3388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4">
+        <v>16464955</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="4">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5">
+        <v>15498173</v>
+      </c>
+      <c r="P5" s="2">
+        <v>8484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="4">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6">
+        <v>15498242</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7">
+        <v>15498242</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="5">
-        <v>3</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5">
-        <v>15498172</v>
-      </c>
-      <c r="L5" s="3">
-        <v>7069</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I6" s="5">
-        <v>2</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6">
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8">
         <v>15498242</v>
       </c>
-      <c r="L6" s="3">
+      <c r="P8" s="2">
         <v>1405</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I7" s="5">
-        <v>2</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7">
-        <v>15498242</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="5">
-        <v>2</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8">
-        <v>15498242</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -839,22 +2049,28 @@
         <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9">
+        <v>93</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9">
         <v>18161083</v>
       </c>
-      <c r="L9" s="3">
+      <c r="P9" s="2">
         <v>1750</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -877,22 +2093,28 @@
         <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10">
+        <v>94</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10">
         <v>18155737</v>
       </c>
-      <c r="L10" s="3">
+      <c r="P10" s="2">
         <v>1379</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -915,22 +2137,28 @@
         <v>35</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11">
+        <v>94</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11">
         <v>18155737</v>
       </c>
-      <c r="L11" s="3">
+      <c r="P11" s="2">
         <v>1379</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -953,22 +2181,28 @@
         <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12">
+        <v>95</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12">
         <v>18148711</v>
       </c>
-      <c r="L12" s="3">
+      <c r="P12" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -991,22 +2225,28 @@
         <v>36</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K13">
+        <v>95</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13">
         <v>20751105</v>
       </c>
-      <c r="L13" s="3">
+      <c r="P13" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1029,22 +2269,28 @@
         <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
-      </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14">
+        <v>93</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="4">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14">
         <v>18161083</v>
       </c>
-      <c r="L14" s="3">
+      <c r="P14" s="2">
         <v>1750</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1067,22 +2313,28 @@
         <v>36</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15">
+        <v>95</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15">
         <v>20751105</v>
       </c>
-      <c r="L15" s="3">
+      <c r="P15" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1105,22 +2357,28 @@
         <v>34</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16">
+        <v>95</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" t="s">
+        <v>67</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16">
         <v>18148711</v>
       </c>
-      <c r="L16" s="3">
+      <c r="P16" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1142,23 +2400,29 @@
       <c r="G17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="K17">
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17">
         <v>18148711</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="2">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1174,29 +2438,37 @@
       <c r="E18">
         <v>1.5</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="6">
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18" s="14">
+        <v>1</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O18" s="14">
         <v>18148825</v>
       </c>
-      <c r="L18" s="6">
+      <c r="P18" s="14">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1212,15 +2484,21 @@
       <c r="E19">
         <v>1.5</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1236,29 +2514,37 @@
       <c r="E20">
         <v>0.75</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="6">
+      <c r="H20" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="14">
+        <v>1</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O20" s="14">
         <v>18148825</v>
       </c>
-      <c r="L20" s="7">
+      <c r="P20" s="15">
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1274,15 +2560,19 @@
       <c r="E21">
         <v>0.75</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1298,15 +2588,19 @@
       <c r="E22">
         <v>0.75</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1322,15 +2616,19 @@
       <c r="E23">
         <v>0.75</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="15"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1346,15 +2644,19 @@
       <c r="E24">
         <v>0.75</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="15"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1370,15 +2672,19 @@
       <c r="E25">
         <v>0.75</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1394,15 +2700,19 @@
       <c r="E26">
         <v>0.75</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1418,29 +2728,35 @@
       <c r="E27">
         <v>2.5</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="8">
-        <v>1</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="8">
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="5">
+        <v>1</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="5">
         <v>18148711</v>
       </c>
-      <c r="L27" s="9">
+      <c r="P27" s="6">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1456,29 +2772,37 @@
       <c r="E28">
         <v>1.5</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="6">
+      <c r="H28" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L28" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M28" s="14">
+        <v>1</v>
+      </c>
+      <c r="N28" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="14">
         <v>18148825</v>
       </c>
-      <c r="L28" s="6">
+      <c r="P28" s="14">
         <v>295</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1494,15 +2818,19 @@
       <c r="E29">
         <v>1.5</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1518,29 +2846,35 @@
       <c r="E30">
         <v>2.5</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I30" s="8">
-        <v>1</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K30" s="8">
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M30" s="5">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" s="5">
         <v>18148711</v>
       </c>
-      <c r="L30" s="9">
+      <c r="P30" s="6">
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1556,29 +2890,37 @@
       <c r="E31">
         <v>1.5</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I31" s="6">
-        <v>1</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="H31" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="14">
+        <v>1</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="14">
         <v>18148825</v>
       </c>
-      <c r="L31" s="6">
+      <c r="P31" s="14">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1594,44 +2936,170 @@
       <c r="E32">
         <v>1.5</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>2.5</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H33" t="s">
+        <v>35</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33" s="4">
+        <v>1</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33">
+        <v>18161083</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1.5</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" t="s">
+        <v>35</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L34" t="s">
+        <v>84</v>
+      </c>
+      <c r="M34" s="4">
+        <v>1</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O34">
+        <v>18155737</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1.5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" t="s">
+        <v>35</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L35" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1</v>
+      </c>
+      <c r="N35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O35">
+        <v>18155737</v>
+      </c>
+      <c r="P35" s="2">
+        <v>1379</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H26"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J31:J32"/>
+  <autoFilter ref="A1:P35"/>
+  <mergeCells count="35">
+    <mergeCell ref="K20:K26"/>
     <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
     <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L31:L32"/>
     <mergeCell ref="K31:K32"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="J20:J26"/>
-    <mergeCell ref="K20:K26"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="I20:I26"/>
-    <mergeCell ref="F20:F26"/>
-    <mergeCell ref="G20:G26"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="G28:G29"/>
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F20:F26"/>
+    <mergeCell ref="G20:G26"/>
+    <mergeCell ref="H20:H26"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="N20:N26"/>
+    <mergeCell ref="O20:O26"/>
+    <mergeCell ref="P20:P26"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ИО.xlsx
+++ b/ИО.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="потребители (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="потребители" sheetId="1" r:id="rId2"/>
+    <sheet name="потребители" sheetId="1" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">потребители!$A$1:$P$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'потребители (2)'!$A$1:$K$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'потребители (2)'!$A$1:$L$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="128">
   <si>
     <t>Санузел</t>
   </si>
@@ -335,6 +335,84 @@
   </si>
   <si>
     <t>Q24</t>
+  </si>
+  <si>
+    <t>розетка 10</t>
+  </si>
+  <si>
+    <t>розетка 11</t>
+  </si>
+  <si>
+    <t>розетка 12</t>
+  </si>
+  <si>
+    <t>розетка 13</t>
+  </si>
+  <si>
+    <t>розетка 14</t>
+  </si>
+  <si>
+    <t>розетка 15</t>
+  </si>
+  <si>
+    <t>розетка 16</t>
+  </si>
+  <si>
+    <t>розетка 17</t>
+  </si>
+  <si>
+    <t>розетка 18</t>
+  </si>
+  <si>
+    <t>розетка 19</t>
+  </si>
+  <si>
+    <t>розетка 20</t>
+  </si>
+  <si>
+    <t>бойлер</t>
+  </si>
+  <si>
+    <t>розетка</t>
+  </si>
+  <si>
+    <t>конвектор</t>
+  </si>
+  <si>
+    <t>варочная панель</t>
+  </si>
+  <si>
+    <t>Лампа 1</t>
+  </si>
+  <si>
+    <t>Лампа 2</t>
+  </si>
+  <si>
+    <t>Лампа 3</t>
+  </si>
+  <si>
+    <t>Лампа 4</t>
+  </si>
+  <si>
+    <t>Лампа 5</t>
+  </si>
+  <si>
+    <t>Лампа 6</t>
+  </si>
+  <si>
+    <t>Лампа 7</t>
+  </si>
+  <si>
+    <t>конветор</t>
+  </si>
+  <si>
+    <t>С 2 А</t>
+  </si>
+  <si>
+    <t>Q25</t>
+  </si>
+  <si>
+    <t>Регулятор GSM</t>
   </si>
 </sst>
 </file>
@@ -371,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -410,6 +488,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -694,195 +778,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="0.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="0.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>33</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>78</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>96</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>91</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="4">
+      <c r="L4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="4">
+      <c r="L5" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>80</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>92</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="J6" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="4">
+      <c r="L6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>80</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="4">
+      <c r="L7" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>80</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="4">
+      <c r="L8" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -890,34 +974,37 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>2.5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>93</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -925,34 +1012,37 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>2.5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>32</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>94</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -960,34 +1050,37 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>2.5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -995,34 +1088,37 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>2.5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>63</v>
       </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1030,34 +1126,37 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13">
+        <v>114</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>2.5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>33</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>36</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1065,34 +1164,37 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14">
+        <v>113</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14">
         <v>5</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>2.5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>34</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>93</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>65</v>
       </c>
-      <c r="K14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1100,34 +1202,37 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15">
+        <v>114</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>2.5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>33</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1135,34 +1240,37 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>2.5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>33</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>34</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>95</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>67</v>
       </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1172,32 +1280,35 @@
       <c r="C17" t="s">
         <v>100</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>27</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>2.5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>68</v>
       </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1205,34 +1316,37 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2.5</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>33</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>34</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>95</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>69</v>
       </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1240,34 +1354,37 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
       </c>
       <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>1.5</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="G19" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="H19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>95</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="J19" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="K19" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="K19" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -1275,24 +1392,27 @@
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>1.5</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" t="s">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J20" s="16"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -1302,32 +1422,35 @@
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21">
         <v>0.1</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.75</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="H21" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="I21" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="J21" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="K21" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1337,20 +1460,23 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E22">
         <v>0.1</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.75</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="14"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1360,20 +1486,23 @@
       <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23">
         <v>0.1</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.75</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1383,20 +1512,23 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24">
         <v>0.1</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.75</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1406,20 +1538,23 @@
       <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E25">
         <v>0.1</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.75</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1429,20 +1564,23 @@
       <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26">
         <v>0.1</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>0.75</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1452,20 +1590,23 @@
       <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27">
         <v>0.1</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.75</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1473,34 +1614,37 @@
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28">
+        <v>124</v>
+      </c>
+      <c r="D28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E28">
         <v>2</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>2.5</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="11" t="s">
+      <c r="J28" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="K28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="K28" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1508,34 +1652,37 @@
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>105</v>
       </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>1.5</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="G29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="H29" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="I29" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="J29" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J29" s="12" t="s">
+      <c r="K29" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="K29" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1543,22 +1690,25 @@
         <v>21</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D30" t="s">
+        <v>106</v>
       </c>
       <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>1.5</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1566,34 +1716,37 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31">
         <v>2</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>2.5</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>95</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="J31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="K31" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="K31" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1601,34 +1754,37 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
       </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>1.5</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="G32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="H32" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="I32" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="J32" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="K32" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="K32" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1636,134 +1792,187 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+        <v>114</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
       </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>1.5</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>81</v>
       </c>
-      <c r="D34">
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>2.5</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>32</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>34</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>93</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="J34" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>84</v>
       </c>
-      <c r="K34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>1.5</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>32</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>35</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>98</v>
       </c>
-      <c r="I35" s="11" t="s">
+      <c r="J35" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>86</v>
       </c>
-      <c r="K35" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>85</v>
       </c>
-      <c r="D36">
-        <v>1</v>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
       </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>1.5</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>32</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>35</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>98</v>
       </c>
-      <c r="I36" s="11" t="s">
+      <c r="J36" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>101</v>
       </c>
-      <c r="K36" s="4">
+      <c r="L36" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37">
+        <v>0.1</v>
+      </c>
+      <c r="F37">
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" t="s">
+        <v>125</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K37" t="s">
+        <v>126</v>
+      </c>
+      <c r="L37" s="4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K36"/>
+  <autoFilter ref="A1:L37"/>
   <mergeCells count="23">
-    <mergeCell ref="K21:K27"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="L32:L33"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:K30"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="L29:L30"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="H32:H33"/>
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="K21:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1774,8 +1983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="D7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,10 +2647,10 @@
       <c r="E18">
         <v>1.5</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="15" t="s">
         <v>35</v>
       </c>
       <c r="H18" t="s">
@@ -2449,16 +2658,16 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="13" t="s">
+      <c r="K18" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L18" s="12" t="s">
+      <c r="L18" s="15" t="s">
         <v>69</v>
       </c>
       <c r="M18" s="14">
         <v>1</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="N18" s="15" t="s">
         <v>46</v>
       </c>
       <c r="O18" s="14">
@@ -2484,17 +2693,17 @@
       <c r="E19">
         <v>1.5</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" t="s">
         <v>95</v>
       </c>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="12"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="15"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="12"/>
+      <c r="N19" s="15"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
     </row>
@@ -2514,33 +2723,33 @@
       <c r="E20">
         <v>0.75</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="15" t="s">
         <v>97</v>
       </c>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
-      <c r="K20" s="13" t="s">
+      <c r="K20" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="15" t="s">
         <v>70</v>
       </c>
       <c r="M20" s="14">
         <v>1</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="N20" s="15" t="s">
         <v>46</v>
       </c>
       <c r="O20" s="14">
         <v>18148825</v>
       </c>
-      <c r="P20" s="15">
+      <c r="P20" s="17">
         <v>295</v>
       </c>
     </row>
@@ -2560,17 +2769,17 @@
       <c r="E21">
         <v>0.75</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="12"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="15"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="12"/>
+      <c r="N21" s="15"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
+      <c r="P21" s="17"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -2588,17 +2797,17 @@
       <c r="E22">
         <v>0.75</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="12"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="15"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="12"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="15"/>
+      <c r="P22" s="17"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -2616,17 +2825,17 @@
       <c r="E23">
         <v>0.75</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="12"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="12"/>
+      <c r="N23" s="15"/>
       <c r="O23" s="14"/>
-      <c r="P23" s="15"/>
+      <c r="P23" s="17"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2644,17 +2853,17 @@
       <c r="E24">
         <v>0.75</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="12"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="15"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="12"/>
+      <c r="N24" s="15"/>
       <c r="O24" s="14"/>
-      <c r="P24" s="15"/>
+      <c r="P24" s="17"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2672,17 +2881,17 @@
       <c r="E25">
         <v>0.75</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="12"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="15"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="12"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
+      <c r="P25" s="17"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2700,17 +2909,17 @@
       <c r="E26">
         <v>0.75</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="12"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="15"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="12"/>
+      <c r="N26" s="15"/>
       <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
+      <c r="P26" s="17"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2772,27 +2981,27 @@
       <c r="E28">
         <v>1.5</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
-      <c r="K28" s="13" t="s">
+      <c r="K28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L28" s="12" t="s">
+      <c r="L28" s="15" t="s">
         <v>72</v>
       </c>
       <c r="M28" s="14">
         <v>1</v>
       </c>
-      <c r="N28" s="12" t="s">
+      <c r="N28" s="15" t="s">
         <v>46</v>
       </c>
       <c r="O28" s="14">
@@ -2818,15 +3027,15 @@
       <c r="E29">
         <v>1.5</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="12"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="15"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="12"/>
+      <c r="N29" s="15"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
     </row>
@@ -2890,27 +3099,27 @@
       <c r="E31">
         <v>1.5</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="15" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
-      <c r="K31" s="13" t="s">
+      <c r="K31" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="15" t="s">
         <v>74</v>
       </c>
       <c r="M31" s="14">
         <v>1</v>
       </c>
-      <c r="N31" s="12" t="s">
+      <c r="N31" s="15" t="s">
         <v>46</v>
       </c>
       <c r="O31" s="14">
@@ -2936,15 +3145,15 @@
       <c r="E32">
         <v>1.5</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="12"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="15"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="12"/>
+      <c r="N32" s="15"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
     </row>
@@ -3065,6 +3274,26 @@
   </sheetData>
   <autoFilter ref="A1:P35"/>
   <mergeCells count="35">
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M26"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="N20:N26"/>
+    <mergeCell ref="O20:O26"/>
+    <mergeCell ref="P20:P26"/>
+    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K20:K26"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="K28:K29"/>
@@ -3080,26 +3309,6 @@
     <mergeCell ref="H20:H26"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H31:H32"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="N20:N26"/>
-    <mergeCell ref="O20:O26"/>
-    <mergeCell ref="P20:P26"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ИО.xlsx
+++ b/ИО.xlsx
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>127</v>
@@ -1950,6 +1950,17 @@
   </sheetData>
   <autoFilter ref="A1:L37"/>
   <mergeCells count="23">
+    <mergeCell ref="L21:L27"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="G21:G27"/>
+    <mergeCell ref="H21:H27"/>
+    <mergeCell ref="I21:I27"/>
+    <mergeCell ref="J21:J27"/>
+    <mergeCell ref="K21:K27"/>
     <mergeCell ref="L32:L33"/>
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
@@ -1962,17 +1973,6 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="J32:J33"/>
     <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L21:L27"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="G21:G27"/>
-    <mergeCell ref="H21:H27"/>
-    <mergeCell ref="I21:I27"/>
-    <mergeCell ref="J21:J27"/>
-    <mergeCell ref="K21:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3274,26 +3274,6 @@
   </sheetData>
   <autoFilter ref="A1:P35"/>
   <mergeCells count="35">
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="L20:L26"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M26"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="P18:P19"/>
-    <mergeCell ref="O28:O29"/>
-    <mergeCell ref="P28:P29"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="N20:N26"/>
-    <mergeCell ref="O20:O26"/>
-    <mergeCell ref="P20:P26"/>
-    <mergeCell ref="N18:N19"/>
     <mergeCell ref="K20:K26"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="K28:K29"/>
@@ -3309,6 +3289,26 @@
     <mergeCell ref="H20:H26"/>
     <mergeCell ref="H28:H29"/>
     <mergeCell ref="H31:H32"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="P18:P19"/>
+    <mergeCell ref="O28:O29"/>
+    <mergeCell ref="P28:P29"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="N20:N26"/>
+    <mergeCell ref="O20:O26"/>
+    <mergeCell ref="P20:P26"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L26"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
